--- a/daten/Fragenkatalog.xlsx
+++ b/daten/Fragenkatalog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" firstSheet="2" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="GS26" sheetId="14" r:id="rId13"/>
     <sheet name="GS31" sheetId="15" r:id="rId14"/>
     <sheet name="GS32" sheetId="16" r:id="rId15"/>
-    <sheet name="GS 33-35" sheetId="17" r:id="rId16"/>
+    <sheet name="GS33-35" sheetId="17" r:id="rId16"/>
     <sheet name="GS40" sheetId="18" r:id="rId17"/>
     <sheet name="GS43" sheetId="19" r:id="rId18"/>
     <sheet name="GS44" sheetId="20" r:id="rId19"/>
@@ -7709,7 +7709,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
@@ -8023,7 +8023,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -8097,7 +8097,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -8132,7 +8131,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -8308,10 +8306,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B40" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -9370,7 +9368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -10096,7 +10094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="B11" workbookViewId="0">
@@ -10777,7 +10775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10826,7 +10824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10869,7 +10867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -11548,7 +11546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12196,11 +12194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="69.28515625" defaultRowHeight="14.25"/>
@@ -12917,7 +12915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13592,7 +13590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -14088,7 +14086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -14717,7 +14715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -15343,7 +15341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16062,7 +16060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16932,7 +16930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17482,7 +17480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18161,11 +18159,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18204,7 +18202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18642,10 +18640,12 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -19511,7 +19511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19931,7 +19931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20611,7 +20611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -21279,7 +21279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21944,7 +21944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22624,7 +22624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23315,7 +23315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/daten/Fragenkatalog.xlsx
+++ b/daten/Fragenkatalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,12 @@
     <sheet name="GS54" sheetId="26" r:id="rId25"/>
     <sheet name="Jugend" sheetId="29" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="2555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="2556">
   <si>
     <t>Frage</t>
   </si>
@@ -7704,6 +7704,9 @@
   </si>
   <si>
     <t>Welches Fach haben Azubis in der Berufsschule nicht?</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -7717,7 +7720,7 @@
     <numFmt numFmtId="165" formatCode="[$-407]General"/>
     <numFmt numFmtId="166" formatCode="[$-407]#,##0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7820,6 +7823,13 @@
       <color theme="1"/>
       <name val="Frutiger VR"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7842,7 +7852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8006,6 +8016,9 @@
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8309,8 +8322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -9179,7 +9192,7 @@
         <v>darf die Bank die Abbuchung verweigern, wenn das Konto nicht gedeckt ist.</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.5">
+    <row r="42" spans="1:6" ht="31.5">
       <c r="A42" s="30" t="s">
         <v>1654</v>
       </c>
@@ -9191,6 +9204,13 @@
       </c>
       <c r="D42" s="30" t="s">
         <v>1653</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F42" s="30" t="str">
+        <f>C42</f>
+        <v>Gutschrift auf ein Girokonto</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42.75">
@@ -12197,8 +12217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="69.28515625" defaultRowHeight="14.25"/>

--- a/daten/Fragenkatalog.xlsx
+++ b/daten/Fragenkatalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="2556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="2560">
   <si>
     <t>Frage</t>
   </si>
@@ -7707,6 +7707,18 @@
   </si>
   <si>
     <t>TODO</t>
+  </si>
+  <si>
+    <t>TODO_A</t>
+  </si>
+  <si>
+    <t>TODO_B</t>
+  </si>
+  <si>
+    <t>TODO_C</t>
+  </si>
+  <si>
+    <t>TODO_D</t>
   </si>
 </sst>
 </file>
@@ -8322,7 +8334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -9391,8 +9403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9431,9 +9443,15 @@
       <c r="C2" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="21" t="s">
@@ -10117,8 +10135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10152,11 +10170,21 @@
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
@@ -10799,7 +10827,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10832,11 +10860,21 @@
       <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10848,7 +10886,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10880,6 +10918,21 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10890,8 +10943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -10925,11 +10978,21 @@
       <c r="A2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="43" t="s">
@@ -12218,7 +12281,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="69.28515625" defaultRowHeight="14.25"/>
@@ -12257,11 +12320,21 @@
       <c r="A2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1">
@@ -12939,7 +13012,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -12973,6 +13046,21 @@
       <c r="A2" s="31" t="s">
         <v>28</v>
       </c>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="33" t="s">
@@ -13614,7 +13702,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -13654,6 +13742,12 @@
       <c r="C2" s="30" t="s">
         <v>1598</v>
       </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
       <c r="F2" s="30" t="str">
         <f>B2</f>
         <v xml:space="preserve">Michael Rütten </v>
@@ -14110,7 +14204,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14143,11 +14237,21 @@
       <c r="A2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="33" t="s">
@@ -15365,7 +15469,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -15400,7 +15504,21 @@
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="52" t="s">
@@ -16084,7 +16202,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16118,11 +16236,21 @@
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
@@ -16954,7 +17082,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -16989,6 +17117,21 @@
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="50" t="s">
@@ -17504,7 +17647,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17537,11 +17680,21 @@
       <c r="A2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
@@ -18183,7 +18336,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18214,6 +18367,21 @@
     <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>35</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
       </c>
     </row>
   </sheetData>
@@ -18663,7 +18831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -19955,7 +20123,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -19989,11 +20157,21 @@
       <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
@@ -20634,7 +20812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -21303,7 +21481,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -21337,6 +21515,21 @@
       <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="39" t="s">
@@ -21968,7 +22161,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -22006,6 +22199,21 @@
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
@@ -22648,7 +22856,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22683,11 +22891,21 @@
       <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7">
@@ -23339,7 +23557,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -23377,11 +23595,21 @@
       <c r="A2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="30" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>2555</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="26" t="s">

--- a/daten/Fragenkatalog.xlsx
+++ b/daten/Fragenkatalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -9404,7 +9404,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9450,7 +9450,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10136,7 +10136,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10183,7 +10183,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10827,7 +10827,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10873,7 +10873,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
   </sheetData>
@@ -10886,7 +10886,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10931,7 +10931,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
   </sheetData>
@@ -10944,7 +10944,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -10991,7 +10991,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12281,7 +12281,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="69.28515625" defaultRowHeight="14.25"/>
@@ -12333,7 +12333,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="G2" s="30"/>
     </row>
@@ -13012,7 +13012,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -13059,7 +13059,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -14204,7 +14204,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14250,7 +14250,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -15469,7 +15469,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -15517,7 +15517,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -16202,7 +16202,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16249,7 +16249,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -17082,7 +17082,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -17130,7 +17130,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -17647,7 +17647,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17693,7 +17693,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -18336,7 +18336,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18381,7 +18381,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
   </sheetData>
@@ -18831,8 +18831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20123,7 +20123,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -20170,7 +20170,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -21480,8 +21480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -21528,7 +21528,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -22161,7 +22161,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -22212,7 +22212,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -22856,7 +22856,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22904,7 +22904,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="G2" s="20"/>
     </row>
@@ -23557,7 +23557,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -23608,7 +23608,7 @@
         <v>2559</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/daten/Fragenkatalog.xlsx
+++ b/daten/Fragenkatalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -20812,8 +20812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -21468,7 +21468,10 @@
       <c r="E31" s="24" t="s">
         <v>2148</v>
       </c>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24" t="str">
+        <f>B31</f>
+        <v>Es wurde vermehrten Alkoholkonsum viel gehext</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -21480,8 +21483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>

--- a/daten/Fragenkatalog.xlsx
+++ b/daten/Fragenkatalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="2560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="2558">
   <si>
     <t>Frage</t>
   </si>
@@ -4160,9 +4160,6 @@
     <t>Naturschutzgebiet</t>
   </si>
   <si>
-    <t>Stützpunkt der RAF</t>
-  </si>
-  <si>
     <t>Welche Fluggesellschaft fliegt vom und zum Weezer Flughafen?</t>
   </si>
   <si>
@@ -4233,9 +4230,6 @@
   </si>
   <si>
     <t>Arnold-Janssen-Schule</t>
-  </si>
-  <si>
-    <t>Petrus-Canisius-Schule</t>
   </si>
   <si>
     <t>Welcher Fluss fließt durch Weeze?</t>
@@ -8493,7 +8487,7 @@
     </row>
     <row r="8" spans="1:6" ht="28.5">
       <c r="A8" s="24" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>52</v>
@@ -8568,7 +8562,7 @@
         <v>475</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="F11" s="24" t="str">
         <f>B11</f>
@@ -8748,16 +8742,16 @@
         <v>90</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F20" s="24" t="str">
         <f>B20</f>
@@ -8913,7 +8907,7 @@
     </row>
     <row r="28" spans="1:6" ht="28.5">
       <c r="A28" s="24" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B28" s="36">
         <v>40</v>
@@ -8976,7 +8970,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="24" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>126</v>
@@ -9017,19 +9011,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="24" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B33" s="24" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D33" s="24" t="s">
         <v>1609</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="E33" s="24" t="s">
         <v>1610</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>1612</v>
       </c>
       <c r="F33" s="24" t="str">
         <f>B33</f>
@@ -9038,19 +9032,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="24" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>1616</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="D34" s="24" t="s">
         <v>1617</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="E34" s="24" t="s">
         <v>1618</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>1620</v>
       </c>
       <c r="F34" s="24" t="str">
         <f>D34</f>
@@ -9059,19 +9053,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="30" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>1621</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="D35" s="30" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>1622</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>1624</v>
       </c>
       <c r="F35" s="30" t="str">
         <f>C35</f>
@@ -9080,19 +9074,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="30" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>1626</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="D36" s="30" t="s">
         <v>1627</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="E36" s="30" t="s">
         <v>1628</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>1630</v>
       </c>
       <c r="F36" s="30" t="str">
         <f>D36</f>
@@ -9101,19 +9095,19 @@
     </row>
     <row r="37" spans="1:6" ht="28.5">
       <c r="A37" s="30" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>1631</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="D37" s="30" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>1632</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>1634</v>
       </c>
       <c r="F37" s="30" t="str">
         <f>B37</f>
@@ -9122,7 +9116,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="30" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B38" s="30">
         <v>10</v>
@@ -9143,19 +9137,19 @@
     </row>
     <row r="39" spans="1:6" ht="28.5">
       <c r="A39" s="30" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>1637</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D39" s="30" t="s">
+      <c r="E39" s="30" t="s">
         <v>1639</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>1641</v>
       </c>
       <c r="F39" s="30" t="str">
         <f xml:space="preserve"> C39</f>
@@ -9164,19 +9158,19 @@
     </row>
     <row r="40" spans="1:6" ht="28.5">
       <c r="A40" s="30" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>1644</v>
-      </c>
       <c r="C40" s="30" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D40" s="30" t="s">
         <v>1643</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>1645</v>
-      </c>
       <c r="E40" s="30" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="F40" s="30" t="str">
         <f>E40</f>
@@ -9185,19 +9179,19 @@
     </row>
     <row r="41" spans="1:6" ht="42.75">
       <c r="A41" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D41" s="30" t="s">
         <v>1646</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="E41" s="30" t="s">
         <v>1647</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>1649</v>
       </c>
       <c r="F41" s="30" t="str">
         <f>E41</f>
@@ -9206,19 +9200,19 @@
     </row>
     <row r="42" spans="1:6" ht="31.5">
       <c r="A42" s="30" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B42" s="30" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D42" s="30" t="s">
         <v>1651</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>1653</v>
-      </c>
       <c r="E42" s="62" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="F42" s="30" t="str">
         <f>C42</f>
@@ -9227,19 +9221,19 @@
     </row>
     <row r="43" spans="1:6" ht="42.75">
       <c r="A43" s="30" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>1655</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="D43" s="30" t="s">
         <v>1656</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="E43" s="30" t="s">
         <v>1657</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>1659</v>
       </c>
       <c r="F43" s="30" t="str">
         <f>B43</f>
@@ -9248,19 +9242,19 @@
     </row>
     <row r="44" spans="1:6" ht="42.75">
       <c r="A44" s="30" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>1660</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="D44" s="30" t="s">
         <v>1661</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="E44" s="30" t="s">
         <v>1662</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>1663</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>1664</v>
       </c>
       <c r="F44" s="30" t="str">
         <f>E44</f>
@@ -9269,19 +9263,19 @@
     </row>
     <row r="45" spans="1:6" ht="42.75">
       <c r="A45" s="30" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>1665</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="D45" s="30" t="s">
         <v>1666</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="E45" s="30" t="s">
         <v>1667</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>1669</v>
       </c>
       <c r="F45" s="30" t="str">
         <f>E45</f>
@@ -9290,19 +9284,19 @@
     </row>
     <row r="46" spans="1:6" ht="28.5">
       <c r="A46" s="30" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>1670</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="D46" s="30" t="s">
         <v>1671</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="E46" s="30" t="s">
         <v>1672</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>1674</v>
       </c>
       <c r="F46" s="30" t="str">
         <f>C46</f>
@@ -9311,19 +9305,19 @@
     </row>
     <row r="47" spans="1:6" ht="28.5">
       <c r="A47" s="30" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>1676</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="D47" s="30" t="s">
         <v>1677</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="E47" s="30" t="s">
         <v>1678</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>1679</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>1680</v>
       </c>
       <c r="F47" s="30" t="str">
         <f>D47</f>
@@ -9332,19 +9326,19 @@
     </row>
     <row r="48" spans="1:6" ht="42.75">
       <c r="A48" s="30" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>1681</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="D48" s="30" t="s">
         <v>1682</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="E48" s="30" t="s">
         <v>1683</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>1685</v>
       </c>
       <c r="F48" s="30" t="str">
         <f>D48</f>
@@ -9353,7 +9347,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="39" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="B49" s="39">
         <v>9</v>
@@ -9374,7 +9368,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="39" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B50" s="61">
         <v>30000</v>
@@ -9438,24 +9432,24 @@
         <v>21</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>643</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="21" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B3" s="21">
         <v>4500</v>
@@ -9476,7 +9470,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="21" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B4" s="21">
         <v>2</v>
@@ -9497,19 +9491,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="21" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>1439</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>1440</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>1441</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>1442</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>1443</v>
       </c>
       <c r="F5" s="21" t="str">
         <f>E5</f>
@@ -9518,7 +9512,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="21" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B6" s="18">
         <v>10745</v>
@@ -9539,7 +9533,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="21" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B7" s="21">
         <v>41</v>
@@ -9560,19 +9554,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="21" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>1446</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="D8" s="21" t="s">
         <v>1447</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>1448</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>1450</v>
       </c>
       <c r="F8" s="21" t="str">
         <f>D8</f>
@@ -9581,7 +9575,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="21" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>610</v>
@@ -9593,7 +9587,7 @@
         <v>556</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="F9" s="21" t="str">
         <f>B9</f>
@@ -9602,7 +9596,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="21" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>109</v>
@@ -9623,19 +9617,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>1454</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>1455</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>1457</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="F11" s="21" t="str">
         <f>C11</f>
@@ -9644,19 +9638,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>1458</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="D12" s="21" t="s">
         <v>1459</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="E12" s="21" t="s">
         <v>1460</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>1462</v>
       </c>
       <c r="F12" s="21" t="str">
         <f>B12</f>
@@ -9665,7 +9659,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="21" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B13" s="21">
         <v>1903</v>
@@ -9686,19 +9680,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>1464</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="D14" s="21" t="s">
         <v>1465</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="E14" s="21" t="s">
         <v>1466</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>1468</v>
       </c>
       <c r="F14" s="21" t="str">
         <f>C14</f>
@@ -9707,19 +9701,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="21" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>1469</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="D15" s="21" t="s">
         <v>1470</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>1471</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>1473</v>
       </c>
       <c r="F15" s="21" t="str">
         <f>B15</f>
@@ -9728,7 +9722,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B16" s="22">
         <v>42545</v>
@@ -9749,19 +9743,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="21" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>1475</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>1476</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="E17" s="21" t="s">
         <v>1477</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>1479</v>
       </c>
       <c r="F17" s="21" t="str">
         <f>D17</f>
@@ -9770,19 +9764,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="21" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>1480</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="D18" s="21" t="s">
         <v>1481</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>1482</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>1484</v>
       </c>
       <c r="F18" s="21" t="str">
         <f>C18</f>
@@ -9791,19 +9785,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="21" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>1485</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="D19" s="21" t="s">
         <v>1486</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="E19" s="21" t="s">
         <v>1487</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>1489</v>
       </c>
       <c r="F19" s="21" t="str">
         <f>B19</f>
@@ -9812,19 +9806,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>541</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F20" s="21" t="str">
         <f>C20</f>
@@ -9833,19 +9827,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="21" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>1494</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="D21" s="21" t="s">
         <v>1495</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>1496</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>1498</v>
       </c>
       <c r="F21" s="21" t="str">
         <f>B21</f>
@@ -9854,10 +9848,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="21" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>304</v>
@@ -9866,7 +9860,7 @@
         <v>302</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F22" s="21" t="str">
         <f>E22</f>
@@ -9875,7 +9869,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="21" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>277</v>
@@ -9887,7 +9881,7 @@
         <v>302</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F23" s="21" t="str">
         <f>C23</f>
@@ -9896,13 +9890,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="21" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>277</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>304</v>
@@ -9917,7 +9911,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="21" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>924</v>
@@ -9929,7 +9923,7 @@
         <v>475</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="F25" s="21" t="str">
         <f>D25</f>
@@ -9938,7 +9932,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="21" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B26" s="21">
         <v>1920</v>
@@ -9959,7 +9953,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="21" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B27" s="21">
         <v>4</v>
@@ -9980,19 +9974,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="21" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>1509</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="E28" s="21" t="s">
         <v>1510</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>1512</v>
       </c>
       <c r="F28" s="21" t="str">
         <f>B28</f>
@@ -10001,19 +9995,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="21" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>1513</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="E29" s="21" t="s">
         <v>1514</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>2153</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>1516</v>
       </c>
       <c r="F29" s="21" t="str">
         <f>B29</f>
@@ -10022,19 +10016,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="21" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>1517</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="E30" s="21" t="s">
         <v>1518</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>2152</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>1520</v>
       </c>
       <c r="F30" s="21" t="str">
         <f>D30</f>
@@ -10043,10 +10037,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="21" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>319</v>
@@ -10055,7 +10049,7 @@
         <v>318</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="F31" s="21" t="str">
         <f>B31</f>
@@ -10064,19 +10058,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="21" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>1524</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="D32" s="21" t="s">
         <v>1525</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="E32" s="21" t="s">
         <v>1526</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>1528</v>
       </c>
       <c r="F32" s="21" t="str">
         <f>E32</f>
@@ -10085,19 +10079,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="21" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>2156</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="C33" s="21" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>2158</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>2159</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>2157</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>2160</v>
       </c>
       <c r="F33" s="21" t="str">
         <f>D33</f>
@@ -10106,19 +10100,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="21" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>2250</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="C34" s="21" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>2252</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>2253</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>2251</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>2254</v>
       </c>
       <c r="F34" t="str">
         <f>B34</f>
@@ -10171,19 +10165,19 @@
         <v>22</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10449,7 +10443,7 @@
         <v>712</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>758</v>
@@ -10632,7 +10626,7 @@
         <v>672</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>720</v>
@@ -10861,19 +10855,19 @@
         <v>23</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
   </sheetData>
@@ -10919,19 +10913,19 @@
         <v>24</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
   </sheetData>
@@ -10979,24 +10973,24 @@
         <v>25</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="43" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B3" s="43">
         <v>7</v>
@@ -11017,19 +11011,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="43" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F4" s="43" t="str">
         <f>E4</f>
@@ -11038,10 +11032,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="43" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>606</v>
@@ -11050,7 +11044,7 @@
         <v>605</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F5" s="43" t="str">
         <f>B5</f>
@@ -11059,19 +11053,19 @@
     </row>
     <row r="6" spans="1:6" ht="42.75">
       <c r="A6" s="43" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="F6" s="43" t="str">
         <f>D6</f>
@@ -11080,7 +11074,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="43" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B7" s="47">
         <v>12556</v>
@@ -11101,7 +11095,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="43" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="B8" s="43">
         <v>8</v>
@@ -11122,19 +11116,19 @@
     </row>
     <row r="9" spans="1:6" ht="28.5">
       <c r="A9" s="43" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>1920</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>1923</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>1922</v>
-      </c>
       <c r="E9" s="43" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="F9" s="43" t="str">
         <f>B9</f>
@@ -11143,39 +11137,39 @@
     </row>
     <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="43" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="43" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="F11" s="44" t="str">
         <f>E11</f>
@@ -11184,7 +11178,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="43" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B12" s="43">
         <v>2</v>
@@ -11205,19 +11199,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="43" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="C13" s="44" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>1909</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>1911</v>
-      </c>
       <c r="E13" s="45" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F13" s="44" t="str">
         <f>C13</f>
@@ -11226,7 +11220,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="43" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B14" s="43">
         <v>4</v>
@@ -11247,19 +11241,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="43" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="F15" s="43" t="str">
         <f>E15</f>
@@ -11268,19 +11262,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="43" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="C16" s="43" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>1900</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>1902</v>
-      </c>
       <c r="E16" s="43" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="F16" s="43" t="str">
         <f>C16</f>
@@ -11289,19 +11283,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="43" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>1895</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>1897</v>
-      </c>
       <c r="E17" s="43" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="F17" s="43" t="str">
         <f>B17</f>
@@ -11310,19 +11304,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="43" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="C18" s="43" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>1891</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>1893</v>
-      </c>
       <c r="E18" s="43" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="F18" s="43" t="str">
         <f>C18</f>
@@ -11331,19 +11325,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="43" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="F19" s="43" t="str">
         <f>C19</f>
@@ -11352,7 +11346,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="43" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B20" s="43">
         <v>1</v>
@@ -11373,7 +11367,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="43" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B21" s="43">
         <v>47509</v>
@@ -11394,19 +11388,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="43" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B22" s="43" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>1884</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>1886</v>
-      </c>
       <c r="E22" s="43" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="F22" s="43" t="str">
         <f>B22</f>
@@ -11415,7 +11409,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="43" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B23" s="43">
         <v>4</v>
@@ -11436,19 +11430,19 @@
     </row>
     <row r="24" spans="1:6" ht="42.75">
       <c r="A24" s="43" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="C24" s="44" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>1879</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>1881</v>
-      </c>
       <c r="E24" s="43" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="F24" s="44" t="str">
         <f>C24</f>
@@ -11457,19 +11451,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="43" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>1874</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>1876</v>
-      </c>
       <c r="E25" s="43" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="F25" s="43" t="str">
         <f>B25</f>
@@ -11478,10 +11472,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="43" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C26" s="43" t="s">
         <v>279</v>
@@ -11499,7 +11493,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="43" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B27" s="43">
         <v>2845</v>
@@ -11520,19 +11514,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="43" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="B28" s="43" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>1952</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="E28" s="43" t="s">
         <v>1953</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>1955</v>
       </c>
       <c r="F28" s="43" t="str">
         <f>B28</f>
@@ -11541,16 +11535,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="43" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>1035</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E29" s="43" t="s">
         <v>575</v>
@@ -11562,19 +11556,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="43" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="B30" s="43" t="s">
         <v>475</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="F30" s="43" t="str">
         <f>C30</f>
@@ -11583,19 +11577,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="43" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="F31" s="43" t="str">
         <f>D31</f>
@@ -11604,19 +11598,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="43" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C32" s="43" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D32" s="43" t="s">
         <v>1853</v>
       </c>
-      <c r="D32" s="43" t="s">
-        <v>1855</v>
-      </c>
       <c r="E32" s="43" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F32" s="43" t="str">
         <f>C32</f>
@@ -11665,19 +11659,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>2163</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>2164</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>2165</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>2166</v>
       </c>
       <c r="F2" s="26" t="str">
         <f>D2</f>
@@ -11686,19 +11680,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="31" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>546</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="F3" s="26" t="str">
         <f>B3</f>
@@ -11707,19 +11701,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="31" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>2170</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>2171</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>2172</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>734</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="F4" s="26" t="str">
         <f>C4</f>
@@ -11728,19 +11722,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="31" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>2174</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="D5" s="26" t="s">
         <v>2175</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>2176</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>2177</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>2178</v>
       </c>
       <c r="F5" s="26" t="str">
         <f>E5</f>
@@ -11749,19 +11743,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="31" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>2179</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="D6" s="26" t="s">
         <v>2180</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="E6" s="26" t="s">
         <v>2181</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>2182</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>2183</v>
       </c>
       <c r="F6" s="26" t="str">
         <f>D6</f>
@@ -11770,7 +11764,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="31" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B7" s="26">
         <v>2017</v>
@@ -11791,16 +11785,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="31" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>2185</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>2186</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>2187</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>606</v>
@@ -11812,7 +11806,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="31" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>1147</v>
@@ -11821,10 +11815,10 @@
         <v>1148</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="F9" s="26" t="str">
         <f>D9</f>
@@ -11833,7 +11827,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="31" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="B10" s="26">
         <v>1067</v>
@@ -11854,7 +11848,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="31" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="B11" s="26">
         <v>3</v>
@@ -11875,7 +11869,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="31" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>632</v>
@@ -11896,19 +11890,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="31" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>1214</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>2171</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>2173</v>
       </c>
       <c r="F13" s="26" t="str">
         <f>B13</f>
@@ -11917,19 +11911,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="31" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>2195</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>2196</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="E14" s="26" t="s">
         <v>2197</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>2198</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>2199</v>
       </c>
       <c r="F14" s="26" t="str">
         <f>E14</f>
@@ -11938,7 +11932,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="31" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="B15" s="26">
         <v>3900</v>
@@ -11959,19 +11953,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="31" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>2201</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="D16" s="26" t="s">
         <v>2202</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="E16" s="26" t="s">
         <v>2203</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>2204</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>2205</v>
       </c>
       <c r="F16" s="26" t="str">
         <f>D16</f>
@@ -11980,19 +11974,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="31" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>2206</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="D17" s="26" t="s">
         <v>2207</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="E17" s="26" t="s">
         <v>2208</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>2209</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>2210</v>
       </c>
       <c r="F17" s="26" t="str">
         <f>B17</f>
@@ -12001,7 +11995,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="31" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="B18" s="26">
         <v>62</v>
@@ -12022,7 +12016,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="31" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B19" s="26">
         <v>1985</v>
@@ -12043,19 +12037,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="31" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>2213</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="D20" s="26" t="s">
         <v>2214</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="E20" s="26" t="s">
         <v>2215</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>2216</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>2217</v>
       </c>
       <c r="F20" s="26" t="str">
         <f>D20</f>
@@ -12064,7 +12058,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="31" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B21" s="26">
         <v>29</v>
@@ -12085,7 +12079,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="31" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B22" s="26">
         <v>2000</v>
@@ -12106,19 +12100,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="31" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>2220</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="D23" s="26" t="s">
         <v>2221</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>2222</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>2223</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>2224</v>
       </c>
       <c r="F23" s="26" t="str">
         <f>B23</f>
@@ -12127,19 +12121,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="31" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>2225</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="D24" s="26" t="s">
         <v>2226</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="E24" s="26" t="s">
         <v>2227</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>2228</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>2229</v>
       </c>
       <c r="F24" s="26" t="str">
         <f>C24</f>
@@ -12148,7 +12142,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="31" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B25" s="26">
         <v>9</v>
@@ -12169,39 +12163,39 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="31" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="31" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>2233</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>2234</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>2235</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>2236</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>2237</v>
       </c>
       <c r="F27" s="26" t="str">
         <f>B27</f>
@@ -12210,7 +12204,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="31" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B28" s="26">
         <v>9</v>
@@ -12234,16 +12228,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>2239</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>2240</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>2241</v>
-      </c>
       <c r="E29" s="26" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="F29" s="26" t="str">
         <f>E29</f>
@@ -12252,19 +12246,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="31" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>2242</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="E30" s="26" t="s">
         <v>2243</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>2244</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>2245</v>
       </c>
       <c r="F30" s="26" t="str">
         <f>B30</f>
@@ -12321,19 +12315,19 @@
         <v>27</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="G2" s="30"/>
     </row>
@@ -12544,16 +12538,16 @@
         <v>1006</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="C12" s="58" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>2255</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>2256</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>2257</v>
       </c>
       <c r="F12" s="58" t="str">
         <f>B12</f>
@@ -12638,7 +12632,7 @@
         <v>1023</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>1024</v>
@@ -12943,13 +12937,13 @@
         <v>470</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>1059</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="F30" s="24" t="str">
         <f>D30</f>
@@ -12959,7 +12953,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="24" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B31" s="24">
         <v>0</v>
@@ -13047,36 +13041,36 @@
         <v>28</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="33" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>548</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>781</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="F3" s="33" t="str">
         <f>C3</f>
@@ -13085,19 +13079,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="33" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>2266</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>2267</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>2268</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>694</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="F4" s="33" t="str">
         <f>B4</f>
@@ -13106,19 +13100,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="33" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>2270</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="D5" s="33" t="s">
         <v>2271</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>2272</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>2273</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>2274</v>
       </c>
       <c r="F5" s="33" t="str">
         <f>B5</f>
@@ -13127,7 +13121,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="33" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B6" s="33">
         <v>47574</v>
@@ -13148,19 +13142,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="33" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="F7" s="60" t="str">
         <f>E7</f>
@@ -13169,7 +13163,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="33" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>475</v>
@@ -13178,7 +13172,7 @@
         <v>170</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>420</v>
@@ -13190,7 +13184,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="33" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>475</v>
@@ -13202,7 +13196,7 @@
         <v>419</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="F9" s="33" t="str">
         <f>C9</f>
@@ -13211,19 +13205,19 @@
     </row>
     <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="33" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>2281</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="D10" s="33" t="s">
         <v>2282</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="E10" s="33" t="s">
         <v>2283</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>2284</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>2285</v>
       </c>
       <c r="F10" s="33" t="str">
         <f>B10</f>
@@ -13232,19 +13226,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="33" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>2286</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="D11" s="33" t="s">
         <v>2287</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="E11" s="33" t="s">
         <v>2288</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>2289</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>2290</v>
       </c>
       <c r="F11" s="33" t="str">
         <f>C11</f>
@@ -13253,19 +13247,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="33" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>2291</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="D12" s="33" t="s">
         <v>2292</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="E12" s="33" t="s">
         <v>2293</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>2294</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>2295</v>
       </c>
       <c r="F12" s="33" t="str">
         <f>B12</f>
@@ -13274,19 +13268,19 @@
     </row>
     <row r="13" spans="1:6" ht="28.5">
       <c r="A13" s="33" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>2296</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="D13" s="33" t="s">
         <v>2297</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="E13" s="33" t="s">
         <v>2298</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>2299</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>2300</v>
       </c>
       <c r="F13" s="33" t="str">
         <f>B13</f>
@@ -13295,19 +13289,19 @@
     </row>
     <row r="14" spans="1:6" ht="28.5">
       <c r="A14" s="33" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>2301</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="D14" s="33" t="s">
         <v>2302</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="E14" s="33" t="s">
         <v>2303</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>2304</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>2305</v>
       </c>
       <c r="F14" s="33" t="str">
         <f>D14</f>
@@ -13316,19 +13310,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="33" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>2306</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C15" s="33" t="s">
+      <c r="E15" s="33" t="s">
         <v>2307</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>2308</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>2309</v>
       </c>
       <c r="F15" s="33" t="str">
         <f>B15</f>
@@ -13337,19 +13331,19 @@
     </row>
     <row r="16" spans="1:6" ht="28.5">
       <c r="A16" s="33" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>538</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="F16" s="33" t="str">
         <f>C16</f>
@@ -13358,16 +13352,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="33" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>2312</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>2313</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>2315</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>540</v>
@@ -13379,19 +13373,19 @@
     </row>
     <row r="18" spans="1:6" ht="42.75">
       <c r="A18" s="33" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>2316</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="D18" s="33" t="s">
         <v>2317</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>2318</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>2319</v>
-      </c>
       <c r="E18" s="33" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="F18" s="33" t="str">
         <f>B18</f>
@@ -13400,7 +13394,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="33" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B19" s="33">
         <v>1</v>
@@ -13421,19 +13415,19 @@
     </row>
     <row r="20" spans="1:6" ht="28.5">
       <c r="A20" s="33" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>2321</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="E20" s="33" t="s">
         <v>2322</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>2318</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>2323</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>2324</v>
       </c>
       <c r="F20" s="33" t="str">
         <f>B20</f>
@@ -13442,19 +13436,19 @@
     </row>
     <row r="21" spans="1:6" ht="28.5">
       <c r="A21" s="33" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="F21" s="33" t="str">
         <f>B21</f>
@@ -13463,10 +13457,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="33" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>734</v>
@@ -13475,7 +13469,7 @@
         <v>994</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="F22" s="33" t="str">
         <f>B22</f>
@@ -13484,19 +13478,19 @@
     </row>
     <row r="23" spans="1:6" ht="28.5">
       <c r="A23" s="33" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>2330</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="D23" s="33" t="s">
         <v>2331</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="E23" s="33" t="s">
         <v>2332</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>2333</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>2334</v>
       </c>
       <c r="F23" s="33" t="str">
         <f>C23</f>
@@ -13505,7 +13499,7 @@
     </row>
     <row r="24" spans="1:6" ht="28.5">
       <c r="A24" s="33" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B24" s="33">
         <v>1</v>
@@ -13526,19 +13520,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="33" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>2336</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="D25" s="33" t="s">
         <v>2337</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="E25" s="33" t="s">
         <v>2338</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>2339</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>2340</v>
       </c>
       <c r="F25" s="33" t="str">
         <f>B25</f>
@@ -13547,19 +13541,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="33" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B26" s="33" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>2337</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="E26" s="33" t="s">
         <v>2338</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>2339</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>2340</v>
       </c>
       <c r="F26" s="33" t="str">
         <f>E26</f>
@@ -13568,19 +13562,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="33" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B27" s="33" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D27" s="33" t="s">
         <v>2337</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="E27" s="33" t="s">
         <v>2338</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>2339</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>2340</v>
       </c>
       <c r="F27" s="33" t="str">
         <f>D27</f>
@@ -13589,19 +13583,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="33" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B28" s="33" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>2337</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="E28" s="33" t="s">
         <v>2338</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>2339</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>2340</v>
       </c>
       <c r="F28" s="33" t="str">
         <f>C28</f>
@@ -13610,7 +13604,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="33" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>69</v>
@@ -13622,7 +13616,7 @@
         <v>76</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="F29" s="33" t="str">
         <f>B29</f>
@@ -13631,7 +13625,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="33" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>69</v>
@@ -13652,16 +13646,16 @@
     </row>
     <row r="31" spans="1:6" ht="28.5">
       <c r="A31" s="33" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>2347</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="D31" s="33" t="s">
         <v>2348</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>2349</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>2350</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>1091</v>
@@ -13673,7 +13667,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="33" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>591</v>
@@ -13682,10 +13676,10 @@
         <v>419</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="F32" s="33" t="str">
         <f>C32</f>
@@ -13737,16 +13731,16 @@
         <v>29</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="F2" s="30" t="str">
         <f>B2</f>
@@ -13755,19 +13749,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>1529</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>1531</v>
       </c>
       <c r="F3" s="24" t="str">
         <f>B3</f>
@@ -13776,7 +13770,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="24" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B4" s="24">
         <v>4</v>
@@ -13797,7 +13791,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="24" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B5" s="24">
         <v>2000</v>
@@ -13809,7 +13803,7 @@
         <v>1645</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="F5" s="24" t="str">
         <f>E5</f>
@@ -13818,19 +13812,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>607</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="F6" s="24" t="str">
         <f>D6</f>
@@ -13839,7 +13833,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="24" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B7" s="24">
         <v>1</v>
@@ -13860,19 +13854,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="24" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>1537</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>1538</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>1540</v>
       </c>
       <c r="F8" s="24" t="str">
         <f>D8</f>
@@ -13881,19 +13875,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="24" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>607</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="F9" s="24" t="str">
         <f>D9</f>
@@ -13902,19 +13896,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="24" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>697</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="F10" s="24" t="str">
         <f>B10</f>
@@ -13923,19 +13917,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="24" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>1544</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>1545</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>1546</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>1548</v>
       </c>
       <c r="F11" s="24" t="str">
         <f>C11</f>
@@ -13944,19 +13938,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>1549</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="D12" s="24" t="s">
         <v>1550</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="E12" s="24" t="s">
         <v>1551</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>1553</v>
       </c>
       <c r="F12" s="24" t="str">
         <f>E12</f>
@@ -13965,19 +13959,19 @@
     </row>
     <row r="13" spans="1:6" ht="28.5">
       <c r="A13" s="24" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>1554</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="D13" s="24" t="s">
         <v>1555</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="E13" s="24" t="s">
         <v>1556</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>1558</v>
       </c>
       <c r="F13" s="24" t="str">
         <f>E13</f>
@@ -13986,7 +13980,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="24" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B14" s="24">
         <v>1982</v>
@@ -14007,7 +14001,7 @@
     </row>
     <row r="15" spans="1:6" ht="28.5">
       <c r="A15" s="24" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B15" s="24">
         <v>14</v>
@@ -14028,19 +14022,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="24" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>1561</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="D16" s="24" t="s">
         <v>1562</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="E16" s="24" t="s">
         <v>1563</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>1565</v>
       </c>
       <c r="F16" s="24" t="str">
         <f>C16</f>
@@ -14049,19 +14043,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="24" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>1584</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="E17" s="24" t="s">
         <v>1585</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>1587</v>
       </c>
       <c r="F17" s="24" t="str">
         <f>C17</f>
@@ -14070,19 +14064,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="24" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="F18" s="24" t="str">
         <f>D18</f>
@@ -14091,19 +14085,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="24" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>1592</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="E19" s="24" t="s">
         <v>1593</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>1595</v>
       </c>
       <c r="F19" s="24" t="str">
         <f>D19</f>
@@ -14112,19 +14106,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="24" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>1569</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="D20" s="24" t="s">
         <v>1570</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>1571</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>1573</v>
       </c>
       <c r="F20" s="24" t="str">
         <f>B20</f>
@@ -14133,19 +14127,19 @@
     </row>
     <row r="21" spans="1:6" ht="28.5">
       <c r="A21" s="24" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>1602</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>1604</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="F21" s="24" t="str">
         <f>D21</f>
@@ -14154,7 +14148,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="24" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B22" s="24">
         <v>4</v>
@@ -14175,19 +14169,19 @@
     </row>
     <row r="23" spans="1:6" ht="28.5">
       <c r="A23" s="24" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>1576</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>1578</v>
-      </c>
       <c r="D23" s="24" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="F23" s="24" t="str">
         <f>C23</f>
@@ -14238,19 +14232,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -15505,19 +15499,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -15562,7 +15556,7 @@
         <v>St. Urbanus</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -16237,19 +16231,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -17118,24 +17112,24 @@
         <v>33</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="50" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B3" s="50">
         <v>1501</v>
@@ -17156,19 +17150,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="50" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F4" s="49" t="str">
         <f>C4</f>
@@ -17177,19 +17171,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="50" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F5" s="49" t="str">
         <f>B5</f>
@@ -17198,19 +17192,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="50" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F6" s="49" t="str">
         <f>D6</f>
@@ -17219,19 +17213,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="50" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>924</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>475</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F7" s="49" t="str">
         <f>B7</f>
@@ -17240,19 +17234,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="50" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>1035</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F8" s="49" t="str">
         <f>E8</f>
@@ -17261,19 +17255,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="50" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="F9" s="49" t="str">
         <f>C9</f>
@@ -17282,7 +17276,7 @@
     </row>
     <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="50" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B10" s="50">
         <v>1969</v>
@@ -17303,10 +17297,10 @@
     </row>
     <row r="11" spans="1:6" ht="28.5">
       <c r="A11" s="50" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>1132</v>
@@ -17324,7 +17318,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="50" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B12" s="50">
         <v>1949</v>
@@ -17345,19 +17339,19 @@
     </row>
     <row r="13" spans="1:6" ht="28.5">
       <c r="A13" s="50" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="F13" s="49" t="str">
         <f>B13</f>
@@ -17366,19 +17360,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="50" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="F14" s="49" t="str">
         <f>D14</f>
@@ -17387,19 +17381,19 @@
     </row>
     <row r="15" spans="1:6" ht="28.5">
       <c r="A15" s="50" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="F15" s="49" t="str">
         <f>E15</f>
@@ -17408,19 +17402,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="50" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="F16" s="49" t="str">
         <f>D16</f>
@@ -17429,7 +17423,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="50" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B17" s="50">
         <v>47623</v>
@@ -17450,7 +17444,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="50" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B18" s="50">
         <v>4800</v>
@@ -17471,19 +17465,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="50" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C19" s="50" t="s">
         <v>943</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="F19" s="49" t="str">
         <f>D19</f>
@@ -17492,19 +17486,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="50" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="F20" s="49" t="str">
         <f>B20</f>
@@ -17513,19 +17507,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="50" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="F21" s="49" t="str">
         <f>B21</f>
@@ -17534,19 +17528,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="50" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="F22" s="49" t="str">
         <f>E22</f>
@@ -17555,19 +17549,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="50" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="F23" s="49" t="str">
         <f>B23</f>
@@ -17576,7 +17570,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="50" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="B24" s="24">
         <v>12</v>
@@ -17597,7 +17591,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="50" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B25" s="50">
         <v>5</v>
@@ -17618,19 +17612,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="24" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>940</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="F26" s="48" t="str">
         <f>D26</f>
@@ -17681,36 +17675,36 @@
         <v>34</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>2354</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>2355</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>2356</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>2357</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>2358</v>
       </c>
       <c r="F3" s="24" t="str">
         <f>B3</f>
@@ -17719,19 +17713,19 @@
     </row>
     <row r="4" spans="1:6" ht="29.25">
       <c r="A4" s="24" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>2359</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>2360</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>2361</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>2362</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>2363</v>
       </c>
       <c r="F4" s="24" t="str">
         <f>D4</f>
@@ -17740,19 +17734,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="24" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>2364</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>2365</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>2366</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>2367</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>2368</v>
       </c>
       <c r="F5" s="24" t="str">
         <f>C5</f>
@@ -17761,19 +17755,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>2369</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>2370</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>2371</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>2372</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>2373</v>
       </c>
       <c r="F6" s="24" t="str">
         <f>B6</f>
@@ -17782,19 +17776,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="24" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>2374</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="D7" s="24" t="s">
         <v>2375</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>2376</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>2377</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>2378</v>
       </c>
       <c r="F7" s="24" t="str">
         <f>E7</f>
@@ -17803,19 +17797,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="24" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>2379</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>2380</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>2381</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>2382</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>2383</v>
       </c>
       <c r="F8" s="24" t="str">
         <f>B8</f>
@@ -17824,19 +17818,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="24" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>2384</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="D9" s="24" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>2385</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>2386</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>2387</v>
       </c>
       <c r="F9" s="24" t="str">
         <f>D9</f>
@@ -17845,19 +17839,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="24" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>2388</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>2389</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>2390</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>2391</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>2392</v>
       </c>
       <c r="F10" s="24" t="str">
         <f>B10</f>
@@ -17866,19 +17860,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="24" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>2393</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>2394</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>2395</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>2396</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>2397</v>
       </c>
       <c r="F11" s="24" t="str">
         <f>E11</f>
@@ -17887,19 +17881,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>868</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>2399</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>2400</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>2401</v>
       </c>
       <c r="F12" s="24" t="str">
         <f>D12</f>
@@ -17908,19 +17902,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="24" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>2402</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="D13" s="24" t="s">
         <v>2403</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="E13" s="24" t="s">
         <v>2404</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>2405</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>2406</v>
       </c>
       <c r="F13" s="24" t="str">
         <f>C13</f>
@@ -17929,19 +17923,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="24" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>2407</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>2408</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>2409</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>2410</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>2411</v>
       </c>
       <c r="F14" s="24" t="str">
         <f>D14</f>
@@ -17950,19 +17944,19 @@
     </row>
     <row r="15" spans="1:6" ht="29.25">
       <c r="A15" s="24" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>2412</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="D15" s="24" t="s">
         <v>2413</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="E15" s="24" t="s">
         <v>2414</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>2415</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>2416</v>
       </c>
       <c r="F15" s="24" t="str">
         <f>E15</f>
@@ -17971,19 +17965,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="24" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>2417</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="D16" s="24" t="s">
         <v>2418</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="E16" s="24" t="s">
         <v>2419</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>2420</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>2421</v>
       </c>
       <c r="F16" s="24" t="str">
         <f>C16</f>
@@ -17992,19 +17986,19 @@
     </row>
     <row r="17" spans="1:6" ht="29.25">
       <c r="A17" s="24" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>2422</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="D17" s="24" t="s">
         <v>2423</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="E17" s="24" t="s">
         <v>2424</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>2425</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>2426</v>
       </c>
       <c r="F17" s="24" t="str">
         <f>B17</f>
@@ -18013,19 +18007,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="24" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>2427</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>2428</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>2429</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>2430</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>2431</v>
       </c>
       <c r="F18" s="24" t="str">
         <f>D18</f>
@@ -18034,7 +18028,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="24" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="B19" s="24">
         <v>1996</v>
@@ -18055,19 +18049,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="24" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>2433</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="D20" s="24" t="s">
         <v>2434</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>2435</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>2436</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>2437</v>
       </c>
       <c r="F20" s="24" t="str">
         <f>B20</f>
@@ -18076,19 +18070,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="24" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>2438</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>2439</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="E21" s="24" t="s">
         <v>2440</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>2441</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>2442</v>
       </c>
       <c r="F21" s="24" t="str">
         <f>C21</f>
@@ -18097,19 +18091,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="24" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>2443</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="E22" s="24" t="s">
         <v>2444</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>2445</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>2446</v>
       </c>
       <c r="F22" s="24" t="str">
         <f>D22</f>
@@ -18118,19 +18112,19 @@
     </row>
     <row r="23" spans="1:6" ht="43.5">
       <c r="A23" s="24" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>2447</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>2448</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="E23" s="24" t="s">
         <v>2449</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>2450</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>2451</v>
       </c>
       <c r="F23" s="24" t="str">
         <f>C23</f>
@@ -18139,7 +18133,7 @@
     </row>
     <row r="24" spans="1:6" ht="29.25">
       <c r="A24" s="24" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>304</v>
@@ -18151,7 +18145,7 @@
         <v>279</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="F24" s="24" t="str">
         <f>D24</f>
@@ -18160,7 +18154,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="24" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>170</v>
@@ -18169,7 +18163,7 @@
         <v>419</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>924</v>
@@ -18181,19 +18175,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="24" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>2455</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>2400</v>
-      </c>
-      <c r="C26" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>2456</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>2457</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>2458</v>
       </c>
       <c r="F26" s="24" t="str">
         <f>C26</f>
@@ -18202,19 +18196,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="24" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>2459</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="D27" s="24" t="s">
         <v>2460</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="E27" s="24" t="s">
         <v>2461</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>2462</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>2463</v>
       </c>
       <c r="F27" s="24" t="str">
         <f>D27</f>
@@ -18223,19 +18217,19 @@
     </row>
     <row r="28" spans="1:6" ht="43.5">
       <c r="A28" s="24" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>2464</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>2465</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>2466</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>2467</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>2468</v>
       </c>
       <c r="F28" s="24" t="str">
         <f>B28</f>
@@ -18244,19 +18238,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="24" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>2469</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="D29" s="24" t="s">
         <v>2470</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="E29" s="24" t="s">
         <v>2471</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>2472</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>2473</v>
       </c>
       <c r="F29" s="24" t="str">
         <f>E29</f>
@@ -18265,19 +18259,19 @@
     </row>
     <row r="30" spans="1:6" ht="29.25">
       <c r="A30" s="24" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>2474</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="D30" s="24" t="s">
         <v>2475</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="E30" s="24" t="s">
         <v>2476</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>2477</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>2478</v>
       </c>
       <c r="F30" s="24" t="str">
         <f>D30</f>
@@ -18286,19 +18280,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="24" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>422</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="F31" s="24" t="str">
         <f>D31</f>
@@ -18307,13 +18301,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="24" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>448</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>423</v>
@@ -18369,19 +18363,19 @@
         <v>35</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
   </sheetData>
@@ -18426,16 +18420,16 @@
     </row>
     <row r="2" spans="1:6" ht="28.5">
       <c r="A2" s="39" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>1789</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>1791</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>608</v>
@@ -18447,19 +18441,19 @@
     </row>
     <row r="3" spans="1:6" ht="28.5">
       <c r="A3" s="39" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>1792</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="E3" s="39" t="s">
         <v>1793</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>1794</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>1795</v>
       </c>
       <c r="F3" s="39" t="str">
         <f>D3</f>
@@ -18468,7 +18462,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="39" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>962</v>
@@ -18477,7 +18471,7 @@
         <v>466</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>465</v>
@@ -18489,19 +18483,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="39" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>1797</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="D5" s="39" t="s">
         <v>1798</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="E5" s="39" t="s">
         <v>1799</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>1801</v>
       </c>
       <c r="F5" s="39" t="str">
         <f>D5</f>
@@ -18510,19 +18504,19 @@
     </row>
     <row r="6" spans="1:6" ht="28.5">
       <c r="A6" s="39" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>1802</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="D6" s="39" t="s">
         <v>1803</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="E6" s="39" t="s">
         <v>1804</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>1805</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>1806</v>
       </c>
       <c r="F6" s="39" t="str">
         <f>C6</f>
@@ -18531,19 +18525,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="39" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>1807</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="D7" s="39" t="s">
         <v>1808</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="E7" s="39" t="s">
         <v>1809</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>1811</v>
       </c>
       <c r="F7" s="39" t="str">
         <f>C7</f>
@@ -18552,19 +18546,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="39" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>1812</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>1813</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>1815</v>
       </c>
       <c r="F8" s="40" t="str">
         <f>C8</f>
@@ -18573,7 +18567,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="39" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B9" s="39">
         <v>47638</v>
@@ -18593,19 +18587,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="39" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="F10" s="41" t="str">
         <f>C10</f>
@@ -18614,19 +18608,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="39" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>1818</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="E11" s="39" t="s">
         <v>1819</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>1821</v>
       </c>
       <c r="F11" s="39" t="str">
         <f>D11</f>
@@ -18635,10 +18629,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="39" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>581</v>
@@ -18647,7 +18641,7 @@
         <v>1044</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="F12" s="40" t="str">
         <f>B12</f>
@@ -18656,19 +18650,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="40" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="F13" s="40" t="str">
         <f>C13</f>
@@ -18677,19 +18671,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="40" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>1827</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="D14" s="40" t="s">
         <v>1828</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="E14" s="40" t="s">
         <v>1829</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>1831</v>
       </c>
       <c r="F14" s="40" t="str">
         <f>B14</f>
@@ -18698,19 +18692,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="40" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="F15" s="40" t="str">
         <f>C15</f>
@@ -18719,19 +18713,19 @@
     </row>
     <row r="16" spans="1:6" ht="28.5">
       <c r="A16" s="40" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>352</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="F16" s="40" t="str">
         <f>D16</f>
@@ -18740,19 +18734,19 @@
     </row>
     <row r="17" spans="1:6" ht="28.5">
       <c r="A17" s="40" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>1836</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>1838</v>
-      </c>
       <c r="E17" s="40" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="F17" s="40" t="str">
         <f>C17</f>
@@ -18761,19 +18755,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="40" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>1839</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="D18" s="40" t="s">
         <v>1840</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="E18" s="40" t="s">
         <v>1841</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>1843</v>
       </c>
       <c r="F18" s="40" t="str">
         <f>C18</f>
@@ -18782,7 +18776,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="40" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>1030</v>
@@ -18794,7 +18788,7 @@
         <v>1034</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="F19" s="40" t="str">
         <f>E19</f>
@@ -18803,13 +18797,13 @@
     </row>
     <row r="20" spans="1:6" ht="28.5">
       <c r="A20" s="40" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>1030</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>979</v>
@@ -19410,199 +19404,199 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="39" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B28" s="39" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>2484</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="E28" s="39" t="s">
         <v>2485</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>2486</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>2487</v>
-      </c>
       <c r="F28" s="39" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="39" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>2488</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>2489</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>2490</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>212</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="29.25">
       <c r="A30" s="39" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B30" s="39" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D30" s="39" t="s">
         <v>2492</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="E30" s="39" t="s">
         <v>2493</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>2494</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>2495</v>
-      </c>
       <c r="F30" s="39" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="29.25">
       <c r="A31" s="39" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>2496</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="D31" s="39" t="s">
         <v>2497</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="E31" s="39" t="s">
         <v>2498</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>2499</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>2500</v>
-      </c>
       <c r="F31" s="39" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="29.25">
       <c r="A32" s="39" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B32" s="39" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D32" s="39" t="s">
         <v>2501</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="E32" s="39" t="s">
         <v>2502</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>2503</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>2504</v>
-      </c>
       <c r="F32" s="39" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="39" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C33" s="39" t="s">
         <v>2505</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="D33" s="39" t="s">
         <v>2506</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="E33" s="39" t="s">
         <v>2507</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>2508</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>2509</v>
-      </c>
       <c r="F33" s="39" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="29.25">
       <c r="A34" s="39" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C34" s="39" t="s">
         <v>2510</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="D34" s="39" t="s">
         <v>2511</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="E34" s="39" t="s">
         <v>2512</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>2513</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>2514</v>
-      </c>
       <c r="F34" s="39" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="29.25">
       <c r="A35" s="39" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>2515</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="D35" s="39" t="s">
         <v>2516</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="E35" s="39" t="s">
         <v>2517</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>2519</v>
-      </c>
       <c r="F35" s="39" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="29.25">
       <c r="A36" s="39" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>2520</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>2521</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>2522</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>175</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="29.25">
       <c r="A37" s="39" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>2524</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="E37" s="39" t="s">
         <v>2525</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>2548</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>2526</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>2527</v>
       </c>
       <c r="F37" s="39" t="str">
         <f>C37</f>
@@ -19611,19 +19605,19 @@
     </row>
     <row r="38" spans="1:6" ht="29.25">
       <c r="A38" s="39" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C38" s="39" t="s">
         <v>2530</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="D38" s="39" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E38" s="39" t="s">
         <v>2531</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>2532</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>2549</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>2533</v>
       </c>
       <c r="F38" s="39" t="str">
         <f>D38</f>
@@ -19632,19 +19626,19 @@
     </row>
     <row r="39" spans="1:6" ht="29.25">
       <c r="A39" s="39" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B39" s="39" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D39" s="39" t="s">
         <v>2534</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="E39" s="39" t="s">
         <v>2535</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>2536</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>2537</v>
       </c>
       <c r="F39" s="39" t="str">
         <f>B39</f>
@@ -19653,19 +19647,19 @@
     </row>
     <row r="40" spans="1:6" ht="29.25">
       <c r="A40" s="39" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C40" s="39" t="s">
         <v>2538</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="D40" s="39" t="s">
         <v>2539</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="E40" s="39" t="s">
         <v>2540</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>2541</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>2542</v>
       </c>
       <c r="F40" s="39" t="str">
         <f>D40</f>
@@ -19674,19 +19668,19 @@
     </row>
     <row r="41" spans="1:6" ht="29.25">
       <c r="A41" s="39" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C41" s="39" t="s">
         <v>2543</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="D41" s="39" t="s">
         <v>2544</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="E41" s="39" t="s">
         <v>2545</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>2546</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>2547</v>
       </c>
       <c r="F41" s="39" t="str">
         <f>C41</f>
@@ -20158,19 +20152,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -20812,8 +20806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -20845,7 +20839,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.5">
       <c r="A2" s="24" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B2" s="24">
         <v>2</v>
@@ -20866,19 +20860,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>1278</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="F3" s="24" t="str">
         <f>C3</f>
@@ -20887,13 +20881,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="24" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>302</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>304</v>
@@ -20908,7 +20902,7 @@
     </row>
     <row r="5" spans="1:6" ht="28.5">
       <c r="A5" s="24" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B5" s="24">
         <v>4</v>
@@ -20929,19 +20923,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>2045</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>2046</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>2047</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>2048</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>2049</v>
       </c>
       <c r="F6" s="24" t="str">
         <f>C6</f>
@@ -20950,7 +20944,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="24" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B7" s="24">
         <v>5</v>
@@ -20971,7 +20965,7 @@
     </row>
     <row r="8" spans="1:6" ht="28.5">
       <c r="A8" s="24" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="B8" s="24">
         <v>5</v>
@@ -20992,19 +20986,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="24" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>2052</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>2053</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="E9" s="24" t="s">
         <v>2054</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>2055</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>2056</v>
       </c>
       <c r="F9" s="24" t="str">
         <f>E9</f>
@@ -21013,19 +21007,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="24" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>2057</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>2058</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>2059</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>2060</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>2061</v>
       </c>
       <c r="F10" s="24" t="str">
         <f>C10</f>
@@ -21034,19 +21028,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="24" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>2062</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>2063</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>2064</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>2065</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>2066</v>
       </c>
       <c r="F11" s="24" t="str">
         <f>D11</f>
@@ -21055,19 +21049,19 @@
     </row>
     <row r="12" spans="1:6" ht="28.5">
       <c r="A12" s="24" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>2067</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="D12" s="24" t="s">
         <v>2068</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="E12" s="24" t="s">
         <v>2069</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>2070</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>2071</v>
       </c>
       <c r="F12" s="24" t="str">
         <f>C12</f>
@@ -21076,19 +21070,19 @@
     </row>
     <row r="13" spans="1:6" ht="28.5">
       <c r="A13" s="24" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>2072</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="D13" s="24" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>2073</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>2075</v>
       </c>
       <c r="F13" s="24" t="str">
         <f>B13</f>
@@ -21097,19 +21091,19 @@
     </row>
     <row r="14" spans="1:6" ht="42.75">
       <c r="A14" s="24" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>2076</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>2149</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>2077</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>2078</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>2079</v>
       </c>
       <c r="F14" s="24" t="str">
         <f>B14</f>
@@ -21118,19 +21112,19 @@
     </row>
     <row r="15" spans="1:6" ht="28.5">
       <c r="A15" s="24" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>2080</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="D15" s="24" t="s">
         <v>2081</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="E15" s="24" t="s">
         <v>2082</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>2083</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>2084</v>
       </c>
       <c r="F15" s="24" t="str">
         <f>D15</f>
@@ -21139,7 +21133,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="24" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="B16" s="24">
         <v>1</v>
@@ -21160,19 +21154,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="24" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>2086</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="D17" s="24" t="s">
         <v>2087</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="E17" s="24" t="s">
         <v>2088</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>2090</v>
       </c>
       <c r="F17" s="24" t="str">
         <f>C17</f>
@@ -21181,19 +21175,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="24" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>2091</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>2092</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>2093</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>2094</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>2095</v>
       </c>
       <c r="F18" s="24" t="str">
         <f>E18</f>
@@ -21202,19 +21196,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="24" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>522</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>2097</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>2098</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>2099</v>
       </c>
       <c r="F19" s="24" t="str">
         <f>B19</f>
@@ -21223,19 +21217,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="24" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>2100</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="D20" s="24" t="s">
         <v>2101</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>2102</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>2103</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>2104</v>
       </c>
       <c r="F20" s="24" t="str">
         <f>E20</f>
@@ -21244,19 +21238,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="24" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>2105</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>2106</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="E21" s="24" t="s">
         <v>2107</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>2108</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>2109</v>
       </c>
       <c r="F21" s="24" t="str">
         <f>B21</f>
@@ -21265,19 +21259,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="24" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>2110</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="E22" s="24" t="s">
         <v>2111</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>2112</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>2113</v>
       </c>
       <c r="F22" s="24" t="str">
         <f>E22</f>
@@ -21286,19 +21280,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="24" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>522</v>
       </c>
       <c r="C23" s="24" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>2115</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>2116</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>2117</v>
       </c>
       <c r="F23" s="24" t="str">
         <f>C23</f>
@@ -21307,19 +21301,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="24" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>989</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="F24" s="24" t="str">
         <f>D24</f>
@@ -21328,7 +21322,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="24" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B25" s="24">
         <v>1999</v>
@@ -21349,19 +21343,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="24" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>2122</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>2123</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>2124</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>2126</v>
       </c>
       <c r="F26" s="24" t="str">
         <f>D26</f>
@@ -21370,19 +21364,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="24" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C27" s="24" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>1423</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>1425</v>
-      </c>
       <c r="E27" s="24" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="F27" s="24" t="str">
         <f>C27</f>
@@ -21391,19 +21385,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="24" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>2129</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>2130</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>2131</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>2132</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>2133</v>
       </c>
       <c r="F28" s="24" t="str">
         <f>B28</f>
@@ -21412,19 +21406,19 @@
     </row>
     <row r="29" spans="1:6" ht="28.5">
       <c r="A29" s="24" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>2134</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="D29" s="24" t="s">
         <v>2135</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="E29" s="24" t="s">
         <v>2136</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>2137</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>2138</v>
       </c>
       <c r="F29" s="24" t="str">
         <f>D29</f>
@@ -21433,19 +21427,19 @@
     </row>
     <row r="30" spans="1:6" ht="28.5">
       <c r="A30" s="24" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>2139</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="D30" s="24" t="s">
         <v>2140</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="E30" s="24" t="s">
         <v>2141</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>2142</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>2143</v>
       </c>
       <c r="F30" s="24" t="str">
         <f>C30</f>
@@ -21454,19 +21448,19 @@
     </row>
     <row r="31" spans="1:6" ht="42.75">
       <c r="A31" s="24" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>2144</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="D31" s="24" t="s">
         <v>2145</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="E31" s="24" t="s">
         <v>2146</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>2147</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>2148</v>
       </c>
       <c r="F31" s="24" t="str">
         <f>B31</f>
@@ -21519,44 +21513,44 @@
         <v>17</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="39" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>606</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5">
       <c r="A4" s="39" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B4" s="40">
         <v>6</v>
@@ -21576,7 +21570,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="39" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B5" s="40">
         <v>5</v>
@@ -21596,27 +21590,27 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="39" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="39" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B7" s="40">
         <v>2</v>
@@ -21636,16 +21630,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="39" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>533</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>994</v>
@@ -21656,39 +21650,39 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="39" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>1767</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>1769</v>
-      </c>
       <c r="E9" s="39" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="39" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>533</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>533</v>
@@ -21696,27 +21690,27 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="39" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="39" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B12" s="40">
         <v>1</v>
@@ -21736,67 +21730,67 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="39" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>1752</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>1754</v>
-      </c>
       <c r="E13" s="40" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="39" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="39" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="39" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B16" s="40">
         <v>3</v>
@@ -21816,27 +21810,27 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="39" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="39" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B18" s="40">
         <v>1</v>
@@ -21856,47 +21850,47 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="39" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>606</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="39" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>1076</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="39" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B21" s="40">
         <v>3</v>
@@ -21916,47 +21910,47 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="39" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="39" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C23" s="40" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>1720</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>1722</v>
-      </c>
       <c r="E23" s="40" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="39" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B24" s="39">
         <v>47638</v>
@@ -21976,7 +21970,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="39" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>475</v>
@@ -21996,87 +21990,87 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="39" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B26" s="41" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>1785</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="E26" s="41" t="s">
         <v>1786</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>1788</v>
-      </c>
       <c r="F26" s="41" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="39" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C27" s="39" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D27" s="39" t="s">
         <v>1712</v>
       </c>
-      <c r="D27" s="39" t="s">
-        <v>1714</v>
-      </c>
       <c r="E27" s="39" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="39" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>465</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="39" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B29" s="39" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D29" s="39" t="s">
         <v>1704</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>1706</v>
-      </c>
       <c r="E29" s="39" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="40" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B30" s="40">
         <v>2</v>
@@ -22096,47 +22090,47 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="40" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>606</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="40" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="C32" s="40" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>1694</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>1696</v>
-      </c>
       <c r="E32" s="40" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.5">
       <c r="A33" s="40" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>1030</v>
@@ -22145,13 +22139,13 @@
         <v>1034</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
   </sheetData>
@@ -22203,19 +22197,19 @@
         <v>18</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -22858,8 +22852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22895,19 +22889,19 @@
         <v>20</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="G2" s="20"/>
     </row>
@@ -23200,56 +23194,57 @@
       <c r="E16" s="17" t="s">
         <v>1372</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>1373</v>
+      <c r="F16" s="17" t="str">
+        <f>B16</f>
+        <v>Stützpukt der Royal Air Force</v>
       </c>
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>1374</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>1375</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>1376</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>1377</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>1378</v>
-      </c>
       <c r="F17" s="17" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>1379</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>1380</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>1381</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>1382</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>1383</v>
-      </c>
       <c r="F18" s="17" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>1325</v>
@@ -23258,40 +23253,40 @@
         <v>366</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>1385</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>1386</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>1387</v>
       </c>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>1388</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>1389</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>1390</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>734</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B21" s="17">
         <v>2</v>
@@ -23312,34 +23307,35 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>1393</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>1394</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>1395</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>1396</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>1398</v>
+      <c r="F22" s="17" t="str">
+        <f>B22</f>
+        <v>Petrus-Canisius-Grundschule</v>
       </c>
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>1399</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>1401</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>971</v>
@@ -23354,40 +23350,40 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>1402</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="D24" s="17" t="s">
         <v>1403</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>1404</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>1406</v>
-      </c>
       <c r="F24" s="17" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>1183</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>1408</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>1410</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>1183</v>
@@ -23396,112 +23392,112 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>1411</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>1412</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="E26" s="17" t="s">
         <v>1413</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>1414</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>1416</v>
       </c>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="17" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>1327</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="17" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>1421</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>1422</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="E28" s="17" t="s">
         <v>1423</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>1425</v>
-      </c>
       <c r="F28" s="17" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="17" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>1426</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="D29" s="17" t="s">
         <v>1427</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>1428</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>1430</v>
-      </c>
       <c r="F29" s="17" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="17" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>1431</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>1432</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>1434</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>1326</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="17" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B31" s="17">
         <v>2010</v>
@@ -23522,7 +23518,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="17" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B32" s="17">
         <v>30</v>
@@ -23599,19 +23595,19 @@
         <v>19</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2556</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>2557</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>2559</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/daten/Fragenkatalog.xlsx
+++ b/daten/Fragenkatalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15315" windowHeight="7995" tabRatio="930" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="GS26" sheetId="14" r:id="rId13"/>
     <sheet name="GS31" sheetId="15" r:id="rId14"/>
     <sheet name="GS32" sheetId="16" r:id="rId15"/>
-    <sheet name="G33-35" sheetId="17" r:id="rId16"/>
+    <sheet name="GS33-35" sheetId="17" r:id="rId16"/>
     <sheet name="GS40" sheetId="18" r:id="rId17"/>
     <sheet name="GS43" sheetId="19" r:id="rId18"/>
     <sheet name="GS44" sheetId="20" r:id="rId19"/>
@@ -12242,8 +12242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="69.28515625" defaultRowHeight="14.25"/>
@@ -15390,7 +15390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
